--- a/ESE516_SAMW25_PinAssignments_IoTracking.xlsx
+++ b/ESE516_SAMW25_PinAssignments_IoTracking.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mgjNAfgD9DrWM+YgWzJ42t18Nqptw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mjfqDj2s6xtqgRbvJ4I0uh9vZe2Gw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="170">
   <si>
     <t>Group Name</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Mingyan Zhou</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1UKz7Q4csXTx8iIkbSRZnd4waow2IUjZj/view?usp=sharing</t>
   </si>
   <si>
     <t>MUST BE THE SAME!</t>
@@ -535,7 +538,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -548,6 +551,10 @@
       <name val="Calibri"/>
     </font>
     <font/>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -820,22 +827,23 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -885,20 +893,13 @@
     </xf>
     <xf borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="12" fillId="3" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="7" fillId="3" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -909,8 +910,8 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="14" fillId="2" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -931,28 +932,28 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="5" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1223,762 +1224,766 @@
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1"/>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="B6" s="9"/>
-      <c r="C6" s="10" t="s">
-        <v>6</v>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1"/>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="E8" s="11" t="s">
-        <v>7</v>
+      <c r="E8" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="12" t="s">
-        <v>8</v>
+      <c r="H8" s="13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="D9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="E9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="F9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="12"/>
+      <c r="G9" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="19">
+      <c r="A10" s="20">
         <v>1.0</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="21" t="s">
+      <c r="B10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="C10" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="A11" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="A12" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="A13" s="20">
+        <v>4.0</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="A14" s="20">
+        <v>5.0</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="A15" s="29">
+        <v>6.0</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="A16" s="20">
+        <v>7.0</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" ht="14.25" customHeight="1">
+      <c r="A17" s="20">
+        <v>8.0</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="A18" s="35">
+        <v>9.0</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="A19" s="20">
+        <v>10.0</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="19">
-        <v>4.0</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="28">
-        <v>6.0</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="19">
-        <v>7.0</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="22" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" ht="14.25" customHeight="1">
+      <c r="A20" s="20">
+        <v>11.0</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="24" t="s">
+      <c r="D20" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="34">
-        <v>9.0</v>
-      </c>
-      <c r="B18" s="35" t="s">
+      <c r="G20" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="19">
-        <v>11.0</v>
-      </c>
-      <c r="B20" s="20" t="s">
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" ht="14.25" customHeight="1">
+      <c r="A21" s="20">
+        <v>12.0</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" ht="14.25" customHeight="1">
+      <c r="A22" s="35">
+        <v>13.0</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="19">
-        <v>12.0</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="34">
-        <v>13.0</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" s="12"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="28">
+      <c r="A23" s="29">
         <v>14.0</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="33"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" ht="14.25" customHeight="1">
+      <c r="A24" s="35">
+        <v>15.0</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="34">
-        <v>15.0</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>45</v>
-      </c>
       <c r="G24" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="12"/>
+        <v>38</v>
+      </c>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="19">
+      <c r="A25" s="20">
         <v>16.0</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="25" t="s">
+      <c r="B25" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="20" t="s">
+      <c r="C25" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="24"/>
-      <c r="H25" s="12"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="25"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="19">
+      <c r="A26" s="20">
         <v>17.0</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="12"/>
+      <c r="B26" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="41">
         <v>18.0</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E27" s="44"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="12"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="13"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="41">
         <v>19.0</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E28" s="44"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="12"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="13"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="19">
+      <c r="A29" s="20">
         <v>20.0</v>
       </c>
-      <c r="B29" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="12"/>
+      <c r="B29" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="19">
+      <c r="A30" s="20">
         <v>21.0</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" ht="14.25" customHeight="1">
+      <c r="A31" s="29">
+        <v>22.0</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="32"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" ht="14.25" customHeight="1">
+      <c r="A32" s="20">
+        <v>23.0</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="24"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" ht="14.25" customHeight="1">
+      <c r="A33" s="20">
+        <v>24.0</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="26"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" ht="14.25" customHeight="1">
+      <c r="A34" s="20">
+        <v>25.0</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="24"/>
+      <c r="F34" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" ht="14.25" customHeight="1">
+      <c r="A35" s="20">
+        <v>26.0</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="24"/>
+      <c r="F35" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" ht="14.25" customHeight="1">
+      <c r="A36" s="29">
+        <v>27.0</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="32"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" ht="14.25" customHeight="1">
+      <c r="A37" s="29">
+        <v>28.0</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="32"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" ht="14.25" customHeight="1">
+      <c r="A38" s="20">
+        <v>29.0</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="24"/>
+      <c r="F38" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" ht="14.25" customHeight="1">
+      <c r="A39" s="20">
+        <v>30.0</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="24"/>
+      <c r="F39" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H39" s="13"/>
+    </row>
+    <row r="40" ht="14.25" customHeight="1">
+      <c r="A40" s="29">
+        <v>31.0</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="32"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="13"/>
+    </row>
+    <row r="41" ht="14.25" customHeight="1">
+      <c r="A41" s="20">
+        <v>32.0</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="28">
-        <v>22.0</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="19">
-        <v>23.0</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="12"/>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="19">
-        <v>24.0</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="H33" s="12"/>
-    </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="19">
-        <v>25.0</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G34" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="H34" s="12"/>
-    </row>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="19">
-        <v>26.0</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G35" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="H35" s="12"/>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="28">
-        <v>27.0</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="31"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="12"/>
-    </row>
-    <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="28">
-        <v>28.0</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="12"/>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="19">
-        <v>29.0</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" s="23"/>
-      <c r="F38" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="G38" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="H38" s="12"/>
-    </row>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="19">
-        <v>30.0</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="23"/>
-      <c r="F39" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="H39" s="12"/>
-    </row>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="28">
-        <v>31.0</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="31"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="12"/>
-    </row>
-    <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="19">
-        <v>32.0</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="25"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="12"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="13"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="28">
+      <c r="A42" s="29">
         <v>33.0</v>
       </c>
-      <c r="B42" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="12"/>
+      <c r="B42" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="32"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="13"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="28">
+      <c r="A43" s="29">
         <v>34.0</v>
       </c>
-      <c r="B43" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="31" t="s">
+      <c r="B43" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="E43" s="32"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="12"/>
+      <c r="C43" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" s="33"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="13"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="28">
+      <c r="A44" s="29">
         <v>35.0</v>
       </c>
-      <c r="B44" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="31" t="s">
+      <c r="B44" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="E44" s="32"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="12"/>
+      <c r="C44" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="33"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="13"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="28">
+      <c r="A45" s="29">
         <v>36.0</v>
       </c>
-      <c r="B45" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="31"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="12"/>
+      <c r="B45" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="32"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="13"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="19">
+      <c r="A46" s="20">
         <v>37.0</v>
       </c>
-      <c r="B46" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="25" t="s">
+      <c r="B46" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E46" s="23"/>
-      <c r="F46" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G46" s="24" t="s">
+      <c r="C46" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="H46" s="12"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="H46" s="13"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="34">
+      <c r="A47" s="35">
         <v>38.0</v>
       </c>
-      <c r="B47" s="35" t="s">
-        <v>92</v>
+      <c r="B47" s="36" t="s">
+        <v>93</v>
       </c>
       <c r="C47" s="45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D47" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E47" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="F47" s="38" t="s">
+      <c r="E47" s="38" t="s">
         <v>95</v>
       </c>
+      <c r="F47" s="36" t="s">
+        <v>96</v>
+      </c>
       <c r="G47" s="39" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H47" s="46"/>
       <c r="I47" s="47"/>
@@ -2001,26 +2006,26 @@
       <c r="Z47" s="47"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="34">
+      <c r="A48" s="35">
         <v>39.0</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E48" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="F48" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="G48" s="39" t="s">
         <v>97</v>
-      </c>
-      <c r="C48" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="E48" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="F48" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="G48" s="39" t="s">
-        <v>96</v>
       </c>
       <c r="H48" s="46"/>
       <c r="I48" s="47"/>
@@ -2043,238 +2048,238 @@
       <c r="Z48" s="47"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="34">
+      <c r="A49" s="35">
         <v>40.0</v>
       </c>
-      <c r="B49" s="35" t="s">
-        <v>99</v>
+      <c r="B49" s="36" t="s">
+        <v>100</v>
       </c>
       <c r="C49" s="45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="E49" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="F49" s="38" t="s">
+      <c r="E49" s="38" t="s">
         <v>102</v>
       </c>
+      <c r="F49" s="36" t="s">
+        <v>103</v>
+      </c>
       <c r="G49" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="H49" s="13"/>
+    </row>
+    <row r="50" ht="14.25" customHeight="1">
+      <c r="A50" s="35">
+        <v>41.0</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="E50" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="F50" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="H49" s="12"/>
-    </row>
-    <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="34">
-        <v>41.0</v>
-      </c>
-      <c r="B50" s="35" t="s">
+      <c r="G50" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E50" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="F50" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="G50" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="H50" s="12"/>
+      <c r="H50" s="13"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="19">
+      <c r="A51" s="20">
         <v>42.0</v>
       </c>
-      <c r="B51" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="12"/>
+      <c r="B51" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="26"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="13"/>
     </row>
     <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" s="19">
+      <c r="A52" s="20">
         <v>43.0</v>
       </c>
-      <c r="B52" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" s="25" t="s">
+      <c r="B52" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="E52" s="23"/>
-      <c r="F52" s="20" t="s">
+      <c r="C52" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G52" s="24"/>
-      <c r="H52" s="12"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G52" s="25"/>
+      <c r="H52" s="13"/>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="19">
+      <c r="A53" s="20">
         <v>44.0</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E53" s="24"/>
+      <c r="F53" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E53" s="23"/>
-      <c r="F53" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="G53" s="24"/>
-      <c r="H53" s="12"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="13"/>
     </row>
     <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="28">
+      <c r="A54" s="29">
         <v>45.0</v>
       </c>
-      <c r="B54" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="C54" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D54" s="31" t="s">
+      <c r="B54" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="E54" s="32"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="12"/>
+      <c r="C54" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E54" s="33"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="13"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="28">
+      <c r="A55" s="29">
         <v>46.0</v>
       </c>
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="C55" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="E55" s="32"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="12"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="13"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="28">
+      <c r="A56" s="29">
         <v>47.0</v>
       </c>
-      <c r="B56" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="C56" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D56" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="E56" s="32"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="12"/>
+      <c r="B56" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E56" s="33"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="13"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="19">
+      <c r="A57" s="20">
         <v>48.0</v>
       </c>
-      <c r="B57" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="23" t="s">
+      <c r="B57" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F57" s="20"/>
-      <c r="G57" s="24" t="s">
+      <c r="D57" s="26"/>
+      <c r="E57" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" s="21"/>
+      <c r="G57" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="13"/>
+    </row>
+    <row r="58" ht="14.25" customHeight="1">
+      <c r="A58" s="20">
+        <v>49.0</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H57" s="12"/>
-    </row>
-    <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="19">
-        <v>49.0</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="23" t="s">
+      <c r="D58" s="26"/>
+      <c r="E58" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" s="21"/>
+      <c r="G58" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" s="13"/>
+    </row>
+    <row r="59" ht="14.25" customHeight="1">
+      <c r="A59" s="20">
+        <v>50.0</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F58" s="20"/>
-      <c r="G58" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H58" s="12"/>
-    </row>
-    <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="19">
-        <v>50.0</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D59" s="25"/>
-      <c r="E59" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F59" s="20"/>
-      <c r="G59" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H59" s="12"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" s="21"/>
+      <c r="G59" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" s="13"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="19">
+      <c r="A60" s="20">
         <v>51.0</v>
       </c>
-      <c r="B60" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D60" s="25"/>
+      <c r="B60" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" s="26"/>
       <c r="E60" s="49"/>
       <c r="F60" s="50"/>
       <c r="G60" s="51"/>
-      <c r="H60" s="12"/>
+      <c r="H60" s="13"/>
     </row>
     <row r="61" ht="14.25" customHeight="1"/>
     <row r="62" ht="14.25" customHeight="1"/>
@@ -3222,10 +3227,13 @@
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="E8:G8"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A5"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3269,7 +3277,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="54" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>3</v>
@@ -3290,7 +3298,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="54" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>5</v>
@@ -3311,63 +3319,63 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="52" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G4" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H4" s="52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I4" s="52" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J4" s="52" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K4" s="56" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L4" s="56" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M4" s="52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N4" s="52" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O4" s="52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="57" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D5" s="57" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E5" s="57">
         <v>2.7</v>
@@ -3382,7 +3390,7 @@
         <v>0.0286</v>
       </c>
       <c r="I5" s="57" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J5" s="57">
         <v>1.0</v>
@@ -3394,27 +3402,27 @@
         <v>2460.0</v>
       </c>
       <c r="M5" s="59" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N5" s="58">
         <v>39.77</v>
       </c>
       <c r="O5" s="57" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="57" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D6" s="57" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E6" s="57">
         <v>2.7</v>
@@ -3429,7 +3437,7 @@
         <v>20.0</v>
       </c>
       <c r="I6" s="57" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J6" s="57">
         <v>1.0</v>
@@ -3441,31 +3449,31 @@
         <v>3710.0</v>
       </c>
       <c r="M6" s="59" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N6" s="58"/>
       <c r="O6" s="57" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="57" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D7" s="57" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E7" s="57" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F7" s="57" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G7" s="57">
         <v>175.0</v>
@@ -3474,7 +3482,7 @@
         <v>23.0</v>
       </c>
       <c r="I7" s="57" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J7" s="57">
         <v>1.0</v>
@@ -3486,25 +3494,25 @@
         <v>19320.0</v>
       </c>
       <c r="M7" s="59" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N7" s="55"/>
       <c r="O7" s="53" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="57" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D8" s="57" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E8" s="57">
         <v>-0.1</v>
@@ -3519,7 +3527,7 @@
         <v>20.0</v>
       </c>
       <c r="I8" s="57" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J8" s="57">
         <v>1.0</v>
@@ -3528,30 +3536,30 @@
         <v>19.04</v>
       </c>
       <c r="L8" s="58" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M8" s="59" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N8" s="58">
         <v>19.04</v>
       </c>
       <c r="O8" s="57" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="57" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D9" s="57" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E9" s="57">
         <v>1.71</v>
@@ -3566,7 +3574,7 @@
         <v>0.026</v>
       </c>
       <c r="I9" s="57" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J9" s="57">
         <v>1.0</v>
@@ -3579,7 +3587,7 @@
         <v>5220</v>
       </c>
       <c r="M9" s="59" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N9" s="58">
         <v>11.95</v>
@@ -3588,16 +3596,16 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D10" s="57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" s="57">
         <v>-0.3</v>
@@ -3612,7 +3620,7 @@
         <v>0.1</v>
       </c>
       <c r="I10" s="57" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J10" s="57">
         <v>1.0</v>
@@ -3624,13 +3632,13 @@
         <v>560.0</v>
       </c>
       <c r="M10" s="64" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N10" s="58">
         <v>7.35</v>
       </c>
       <c r="O10" s="57" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1"/>

--- a/ESE516_SAMW25_PinAssignments_IoTracking.xlsx
+++ b/ESE516_SAMW25_PinAssignments_IoTracking.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="167">
   <si>
     <t>Group Name</t>
   </si>
@@ -124,16 +124,16 @@
     <t>PA17</t>
   </si>
   <si>
-    <t>SERCOM3 SPI SCK</t>
-  </si>
-  <si>
-    <t>SPI SCK</t>
-  </si>
-  <si>
-    <t>SERCOM 3</t>
-  </si>
-  <si>
-    <t>AOM6448A0-0.66WW-ANO</t>
+    <t>SERCOM3 I2C_1 SCL</t>
+  </si>
+  <si>
+    <t>I2C</t>
+  </si>
+  <si>
+    <t>SERCOM3</t>
+  </si>
+  <si>
+    <t>LCD-14532</t>
   </si>
   <si>
     <t>PA18</t>
@@ -151,25 +151,13 @@
     <t>PA20</t>
   </si>
   <si>
-    <t>SERCOM3 SPI MISO</t>
-  </si>
-  <si>
-    <t>SPI MISO</t>
-  </si>
-  <si>
-    <t>SERCOM3</t>
-  </si>
-  <si>
     <t>PA21</t>
   </si>
   <si>
     <t>PA22</t>
   </si>
   <si>
-    <t>SERCOM3 SPI MOSI</t>
-  </si>
-  <si>
-    <t>SPI MOSI</t>
+    <t>SERCOM3 I2C_1 SDA</t>
   </si>
   <si>
     <t>PA23</t>
@@ -250,6 +238,9 @@
     <t>PB02</t>
   </si>
   <si>
+    <t>Extra Pins</t>
+  </si>
+  <si>
     <t>PB03</t>
   </si>
   <si>
@@ -301,10 +292,7 @@
     <t>PA08</t>
   </si>
   <si>
-    <t>SERCOM0 I2C SDA</t>
-  </si>
-  <si>
-    <t>I2C</t>
+    <t>SERCOM0 I2C_0 SDA</t>
   </si>
   <si>
     <t>SERCOM0</t>
@@ -316,7 +304,7 @@
     <t>PA09</t>
   </si>
   <si>
-    <t>SERCOM0 I2C SCL</t>
+    <t>SERCOM0 I2C_0 SCL</t>
   </si>
   <si>
     <t>PA10</t>
@@ -517,6 +505,9 @@
   </si>
   <si>
     <t>OLED screen</t>
+  </si>
+  <si>
+    <t>AOM6448A0-0.66WW-ANO</t>
   </si>
   <si>
     <t>Orient Display</t>
@@ -597,7 +588,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -612,14 +603,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA4C2F4"/>
-        <bgColor rgb="FFA4C2F4"/>
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor rgb="FFC9DAF8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93C47D"/>
+        <bgColor rgb="FF93C47D"/>
       </patternFill>
     </fill>
     <fill>
@@ -822,7 +819,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="75">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -893,24 +890,46 @@
     </xf>
     <xf borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="12" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="6" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="4" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="4" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="4" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="5" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="6" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="3" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="12" fillId="5" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="5" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="7" fillId="3" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="4" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="4" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="12" fillId="3" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -932,10 +951,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="6" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -944,16 +963,16 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="6" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="6" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1438,13 +1457,31 @@
       <c r="E18" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="39" t="s">
+      <c r="G18" s="40" t="s">
         <v>38</v>
       </c>
       <c r="H18" s="13"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="20">
@@ -1505,35 +1542,45 @@
       <c r="H21" s="13"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="35">
+      <c r="A22" s="42">
         <v>13.0</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" s="39" t="s">
-        <v>38</v>
-      </c>
+      <c r="D22" s="44"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="46"/>
       <c r="H22" s="13"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="41"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="29">
         <v>14.0</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C23" s="30" t="s">
         <v>30</v>
@@ -1548,41 +1595,59 @@
         <v>15.0</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C24" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="40" t="s">
-        <v>49</v>
+      <c r="D24" s="37" t="s">
+        <v>46</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="40" t="s">
         <v>38</v>
       </c>
       <c r="H24" s="13"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="41"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="20">
         <v>16.0</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="13"/>
@@ -1602,37 +1667,37 @@
       <c r="H26" s="13"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="41">
+      <c r="A27" s="42">
         <v>18.0</v>
       </c>
-      <c r="B27" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="44"/>
+      <c r="B27" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="45"/>
       <c r="F27" s="30"/>
       <c r="G27" s="34"/>
       <c r="H27" s="13"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="41">
+      <c r="A28" s="42">
         <v>19.0</v>
       </c>
-      <c r="B28" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="44"/>
+      <c r="B28" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="45"/>
       <c r="F28" s="30"/>
       <c r="G28" s="34"/>
       <c r="H28" s="13"/>
@@ -1645,7 +1710,7 @@
         <v>17</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="24"/>
@@ -1658,10 +1723,10 @@
         <v>21.0</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D30" s="26"/>
       <c r="E30" s="24"/>
@@ -1674,7 +1739,7 @@
         <v>22.0</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>30</v>
@@ -1690,13 +1755,13 @@
         <v>23.0</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>30</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E32" s="24"/>
       <c r="F32" s="21"/>
@@ -1708,16 +1773,16 @@
         <v>24.0</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D33" s="26"/>
       <c r="E33" s="24"/>
       <c r="F33" s="21"/>
       <c r="G33" s="25" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H33" s="13"/>
     </row>
@@ -1726,20 +1791,20 @@
         <v>25.0</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E34" s="24"/>
       <c r="F34" s="21" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H34" s="13"/>
     </row>
@@ -1748,20 +1813,20 @@
         <v>26.0</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E35" s="24"/>
       <c r="F35" s="21" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H35" s="13"/>
     </row>
@@ -1769,32 +1834,36 @@
       <c r="A36" s="29">
         <v>27.0</v>
       </c>
-      <c r="B36" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="31" t="s">
+      <c r="B36" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="34"/>
+      <c r="D36" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="51"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="52"/>
       <c r="H36" s="13"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="29">
         <v>28.0</v>
       </c>
-      <c r="B37" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="31" t="s">
+      <c r="B37" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="34"/>
+      <c r="D37" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="51"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="52"/>
       <c r="H37" s="13"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
@@ -1802,20 +1871,20 @@
         <v>29.0</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C38" s="22" t="s">
         <v>30</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E38" s="24"/>
       <c r="F38" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H38" s="13"/>
     </row>
@@ -1824,20 +1893,20 @@
         <v>30.0</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C39" s="22" t="s">
         <v>30</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E39" s="24"/>
       <c r="F39" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H39" s="13"/>
     </row>
@@ -1846,7 +1915,7 @@
         <v>31.0</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C40" s="31" t="s">
         <v>30</v>
@@ -1865,7 +1934,7 @@
         <v>17</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D41" s="26"/>
       <c r="E41" s="24"/>
@@ -1877,16 +1946,18 @@
       <c r="A42" s="29">
         <v>33.0</v>
       </c>
-      <c r="B42" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="31" t="s">
+      <c r="B42" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="34"/>
+      <c r="D42" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="51"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="52"/>
       <c r="H42" s="13"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
@@ -1894,13 +1965,13 @@
         <v>34.0</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C43" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E43" s="33"/>
       <c r="F43" s="30"/>
@@ -1912,13 +1983,13 @@
         <v>35.0</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C44" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E44" s="33"/>
       <c r="F44" s="30"/>
@@ -1929,16 +2000,18 @@
       <c r="A45" s="29">
         <v>36.0</v>
       </c>
-      <c r="B45" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="31" t="s">
+      <c r="B45" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="32"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="34"/>
+      <c r="D45" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45" s="51"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="52"/>
       <c r="H45" s="13"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
@@ -1946,20 +2019,20 @@
         <v>37.0</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C46" s="22" t="s">
         <v>30</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E46" s="24"/>
       <c r="F46" s="21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H46" s="13"/>
     </row>
@@ -1968,106 +2041,106 @@
         <v>38.0</v>
       </c>
       <c r="B47" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="G47" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="E47" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="F47" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="G47" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="H47" s="46"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="47"/>
-      <c r="K47" s="47"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="47"/>
-      <c r="N47" s="47"/>
-      <c r="O47" s="47"/>
-      <c r="P47" s="47"/>
-      <c r="Q47" s="47"/>
-      <c r="R47" s="47"/>
-      <c r="S47" s="47"/>
-      <c r="T47" s="47"/>
-      <c r="U47" s="47"/>
-      <c r="V47" s="47"/>
-      <c r="W47" s="47"/>
-      <c r="X47" s="47"/>
-      <c r="Y47" s="47"/>
-      <c r="Z47" s="47"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="55"/>
+      <c r="N47" s="55"/>
+      <c r="O47" s="55"/>
+      <c r="P47" s="55"/>
+      <c r="Q47" s="55"/>
+      <c r="R47" s="55"/>
+      <c r="S47" s="55"/>
+      <c r="T47" s="55"/>
+      <c r="U47" s="55"/>
+      <c r="V47" s="55"/>
+      <c r="W47" s="55"/>
+      <c r="X47" s="55"/>
+      <c r="Y47" s="55"/>
+      <c r="Z47" s="55"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="35">
         <v>39.0</v>
       </c>
       <c r="B48" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="40" t="s">
-        <v>99</v>
+      <c r="D48" s="37" t="s">
+        <v>95</v>
       </c>
       <c r="E48" s="38" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="F48" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="G48" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="H48" s="46"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="47"/>
-      <c r="O48" s="47"/>
-      <c r="P48" s="47"/>
-      <c r="Q48" s="47"/>
-      <c r="R48" s="47"/>
-      <c r="S48" s="47"/>
-      <c r="T48" s="47"/>
-      <c r="U48" s="47"/>
-      <c r="V48" s="47"/>
-      <c r="W48" s="47"/>
-      <c r="X48" s="47"/>
-      <c r="Y48" s="47"/>
-      <c r="Z48" s="47"/>
+        <v>92</v>
+      </c>
+      <c r="G48" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="H48" s="13"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="55"/>
+      <c r="O48" s="55"/>
+      <c r="P48" s="55"/>
+      <c r="Q48" s="55"/>
+      <c r="R48" s="55"/>
+      <c r="S48" s="55"/>
+      <c r="T48" s="55"/>
+      <c r="U48" s="55"/>
+      <c r="V48" s="55"/>
+      <c r="W48" s="55"/>
+      <c r="X48" s="55"/>
+      <c r="Y48" s="55"/>
+      <c r="Z48" s="55"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="35">
         <v>40.0</v>
       </c>
       <c r="B49" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="F49" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G49" s="58" t="s">
         <v>100</v>
-      </c>
-      <c r="C49" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E49" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="F49" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="G49" s="48" t="s">
-        <v>104</v>
       </c>
       <c r="H49" s="13"/>
     </row>
@@ -2076,22 +2149,22 @@
         <v>41.0</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="D50" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="E50" s="38" t="s">
+      <c r="D50" s="56" t="s">
         <v>102</v>
       </c>
+      <c r="E50" s="57" t="s">
+        <v>98</v>
+      </c>
       <c r="F50" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="G50" s="48" t="s">
-        <v>104</v>
+        <v>99</v>
+      </c>
+      <c r="G50" s="58" t="s">
+        <v>100</v>
       </c>
       <c r="H50" s="13"/>
     </row>
@@ -2103,7 +2176,7 @@
         <v>17</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D51" s="26"/>
       <c r="E51" s="24"/>
@@ -2116,17 +2189,17 @@
         <v>43.0</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C52" s="22" t="s">
         <v>30</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E52" s="24"/>
       <c r="F52" s="21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G52" s="25"/>
       <c r="H52" s="13"/>
@@ -2136,17 +2209,17 @@
         <v>44.0</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C53" s="22" t="s">
         <v>30</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G53" s="25"/>
       <c r="H53" s="13"/>
@@ -2156,13 +2229,13 @@
         <v>45.0</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C54" s="31" t="s">
         <v>26</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E54" s="33"/>
       <c r="F54" s="30"/>
@@ -2174,13 +2247,13 @@
         <v>46.0</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C55" s="31" t="s">
         <v>26</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E55" s="33"/>
       <c r="F55" s="30"/>
@@ -2192,13 +2265,13 @@
         <v>47.0</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C56" s="31" t="s">
         <v>26</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E56" s="33"/>
       <c r="F56" s="30"/>
@@ -2210,7 +2283,7 @@
         <v>48.0</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C57" s="22" t="s">
         <v>20</v>
@@ -2230,7 +2303,7 @@
         <v>49.0</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C58" s="22" t="s">
         <v>20</v>
@@ -2250,7 +2323,7 @@
         <v>50.0</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C59" s="22" t="s">
         <v>20</v>
@@ -2273,12 +2346,12 @@
         <v>17</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D60" s="26"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="50"/>
-      <c r="G60" s="51"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="60"/>
+      <c r="G60" s="61"/>
       <c r="H60" s="13"/>
     </row>
     <row r="61" ht="14.25" customHeight="1"/>
@@ -3255,390 +3328,390 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
+      <c r="A3" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="A4" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="54" t="s">
+      <c r="D4" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="52" t="s">
+      <c r="E4" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="F4" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="G4" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="H4" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="I4" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="J4" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="K4" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="L4" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="M4" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="J4" s="52" t="s">
+      <c r="N4" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="K4" s="56" t="s">
+      <c r="O4" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="L4" s="56" t="s">
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="M4" s="52" t="s">
+      <c r="B5" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="N4" s="52" t="s">
+      <c r="C5" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="O4" s="52" t="s">
+      <c r="D5" s="67" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="57" t="s">
+      <c r="E5" s="67">
+        <v>2.7</v>
+      </c>
+      <c r="F5" s="67">
+        <v>4.3</v>
+      </c>
+      <c r="G5" s="67">
+        <v>3.5</v>
+      </c>
+      <c r="H5" s="67">
+        <v>0.0286</v>
+      </c>
+      <c r="I5" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="J5" s="67">
+        <v>1.0</v>
+      </c>
+      <c r="K5" s="68">
+        <v>2.98</v>
+      </c>
+      <c r="L5" s="68">
+        <v>2460.0</v>
+      </c>
+      <c r="M5" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="N5" s="68">
+        <v>39.77</v>
+      </c>
+      <c r="O5" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="57" t="s">
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="57">
+      <c r="B6" s="67" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="67">
         <v>2.7</v>
       </c>
-      <c r="F5" s="57">
+      <c r="F6" s="67">
         <v>4.3</v>
       </c>
-      <c r="G5" s="57">
-        <v>3.5</v>
-      </c>
-      <c r="H5" s="57">
-        <v>0.0286</v>
-      </c>
-      <c r="I5" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="J5" s="57">
+      <c r="G6" s="67">
+        <v>172.0</v>
+      </c>
+      <c r="H6" s="67">
+        <v>20.0</v>
+      </c>
+      <c r="I6" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="J6" s="67">
         <v>1.0</v>
       </c>
-      <c r="K5" s="58">
-        <v>2.98</v>
-      </c>
-      <c r="L5" s="58">
-        <v>2460.0</v>
-      </c>
-      <c r="M5" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="N5" s="58">
-        <v>39.77</v>
-      </c>
-      <c r="O5" s="57" t="s">
+      <c r="K6" s="68">
+        <v>3.75</v>
+      </c>
+      <c r="L6" s="68">
+        <v>3710.0</v>
+      </c>
+      <c r="M6" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="N6" s="68"/>
+      <c r="O6" s="67" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="57" t="s">
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B7" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="57" t="s">
+      <c r="C7" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="E6" s="57">
-        <v>2.7</v>
-      </c>
-      <c r="F6" s="57">
-        <v>4.3</v>
-      </c>
-      <c r="G6" s="57">
-        <v>172.0</v>
-      </c>
-      <c r="H6" s="57">
+      <c r="E7" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="67" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="67">
+        <v>175.0</v>
+      </c>
+      <c r="H7" s="67">
+        <v>23.0</v>
+      </c>
+      <c r="I7" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="J7" s="67">
+        <v>1.0</v>
+      </c>
+      <c r="K7" s="70">
+        <v>26.75</v>
+      </c>
+      <c r="L7" s="71">
+        <v>19320.0</v>
+      </c>
+      <c r="M7" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="N7" s="65"/>
+      <c r="O7" s="63" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="A8" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="67">
+        <v>-0.1</v>
+      </c>
+      <c r="F8" s="67">
+        <v>3.6</v>
+      </c>
+      <c r="G8" s="67">
         <v>20.0</v>
       </c>
-      <c r="I6" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="J6" s="57">
+      <c r="H8" s="67">
+        <v>20.0</v>
+      </c>
+      <c r="I8" s="67" t="s">
+        <v>153</v>
+      </c>
+      <c r="J8" s="67">
         <v>1.0</v>
       </c>
-      <c r="K6" s="58">
-        <v>3.75</v>
-      </c>
-      <c r="L6" s="58">
-        <v>3710.0</v>
-      </c>
-      <c r="M6" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="N6" s="58"/>
-      <c r="O6" s="57" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="57" t="s">
-        <v>147</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>150</v>
-      </c>
-      <c r="F7" s="57" t="s">
-        <v>151</v>
-      </c>
-      <c r="G7" s="57">
-        <v>175.0</v>
-      </c>
-      <c r="H7" s="57">
-        <v>23.0</v>
-      </c>
-      <c r="I7" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="J7" s="57">
+      <c r="K8" s="68">
+        <v>19.04</v>
+      </c>
+      <c r="L8" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="M8" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="N8" s="68">
+        <v>19.04</v>
+      </c>
+      <c r="O8" s="67" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="67">
+        <v>1.71</v>
+      </c>
+      <c r="F9" s="67">
+        <v>3.6</v>
+      </c>
+      <c r="G9" s="67">
+        <v>0.55</v>
+      </c>
+      <c r="H9" s="67">
+        <v>0.026</v>
+      </c>
+      <c r="I9" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="67">
         <v>1.0</v>
       </c>
-      <c r="K7" s="60">
-        <v>26.75</v>
-      </c>
-      <c r="L7" s="61">
-        <v>19320.0</v>
-      </c>
-      <c r="M7" s="59" t="s">
-        <v>152</v>
-      </c>
-      <c r="N7" s="55"/>
-      <c r="O7" s="53" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="E8" s="57">
-        <v>-0.1</v>
-      </c>
-      <c r="F8" s="57">
-        <v>3.6</v>
-      </c>
-      <c r="G8" s="57">
-        <v>20.0</v>
-      </c>
-      <c r="H8" s="57">
-        <v>20.0</v>
-      </c>
-      <c r="I8" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="J8" s="57">
-        <v>1.0</v>
-      </c>
-      <c r="K8" s="58">
-        <v>19.04</v>
-      </c>
-      <c r="L8" s="58" t="s">
-        <v>140</v>
-      </c>
-      <c r="M8" s="59" t="s">
-        <v>158</v>
-      </c>
-      <c r="N8" s="58">
-        <v>19.04</v>
-      </c>
-      <c r="O8" s="57" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="57" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="E9" s="57">
-        <v>1.71</v>
-      </c>
-      <c r="F9" s="57">
-        <v>3.6</v>
-      </c>
-      <c r="G9" s="57">
-        <v>0.55</v>
-      </c>
-      <c r="H9" s="57">
-        <v>0.026</v>
-      </c>
-      <c r="I9" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9" s="57">
-        <v>1.0</v>
-      </c>
-      <c r="K9" s="58">
+      <c r="K9" s="68">
         <v>7.38</v>
       </c>
-      <c r="L9" s="62">
+      <c r="L9" s="72">
         <f> 5.22 * 1000</f>
         <v>5220</v>
       </c>
-      <c r="M9" s="59" t="s">
+      <c r="M9" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="N9" s="68">
+        <v>11.95</v>
+      </c>
+      <c r="O9" s="64"/>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" s="67" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="67">
+        <v>-0.3</v>
+      </c>
+      <c r="F10" s="67">
+        <v>4.0</v>
+      </c>
+      <c r="G10" s="73">
+        <v>20.0</v>
+      </c>
+      <c r="H10" s="73">
+        <v>0.1</v>
+      </c>
+      <c r="I10" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="N9" s="58">
-        <v>11.95</v>
-      </c>
-      <c r="O9" s="54"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="57" t="s">
+      <c r="J10" s="67">
+        <v>1.0</v>
+      </c>
+      <c r="K10" s="68">
+        <v>7.35</v>
+      </c>
+      <c r="L10" s="68">
+        <v>560.0</v>
+      </c>
+      <c r="M10" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="57" t="s">
+      <c r="N10" s="68">
+        <v>7.35</v>
+      </c>
+      <c r="O10" s="67" t="s">
         <v>166</v>
-      </c>
-      <c r="D10" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="57">
-        <v>-0.3</v>
-      </c>
-      <c r="F10" s="57">
-        <v>4.0</v>
-      </c>
-      <c r="G10" s="63">
-        <v>20.0</v>
-      </c>
-      <c r="H10" s="63">
-        <v>0.1</v>
-      </c>
-      <c r="I10" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="J10" s="57">
-        <v>1.0</v>
-      </c>
-      <c r="K10" s="58">
-        <v>7.35</v>
-      </c>
-      <c r="L10" s="58">
-        <v>560.0</v>
-      </c>
-      <c r="M10" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="N10" s="58">
-        <v>7.35</v>
-      </c>
-      <c r="O10" s="57" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1"/>
